--- a/Team-Data/2012-13/3-22-2012-13.xlsx
+++ b/Team-Data/2012-13/3-22-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>0.551</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -696,7 +763,7 @@
         <v>23.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O2" t="n">
         <v>13.5</v>
@@ -708,10 +775,10 @@
         <v>0.708</v>
       </c>
       <c r="R2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
         <v>40.8</v>
@@ -729,10 +796,10 @@
         <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA2" t="n">
         <v>18.7</v>
@@ -741,10 +808,10 @@
         <v>97.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -753,10 +820,10 @@
         <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -789,7 +856,7 @@
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>24</v>
@@ -798,16 +865,16 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW2" t="n">
         <v>16</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
         <v>36</v>
       </c>
       <c r="F3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>0.529</v>
+        <v>0.537</v>
       </c>
       <c r="H3" t="n">
         <v>49.2</v>
       </c>
       <c r="I3" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
@@ -878,28 +945,28 @@
         <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O3" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P3" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="R3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T3" t="n">
         <v>39.7</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V3" t="n">
         <v>14.6</v>
@@ -923,19 +990,19 @@
         <v>96</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -950,16 +1017,16 @@
         <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM3" t="n">
         <v>27</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -971,13 +1038,13 @@
         <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV3" t="n">
         <v>11</v>
@@ -1001,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="BC3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>1.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>12</v>
@@ -1147,7 +1214,7 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR4" t="n">
         <v>6</v>
@@ -1156,13 +1223,13 @@
         <v>19</v>
       </c>
       <c r="AT4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU4" t="n">
         <v>28</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -1290,25 +1357,25 @@
         <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1490,10 +1557,10 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1514,10 +1581,10 @@
         <v>6</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
         <v>7</v>
@@ -1541,13 +1608,13 @@
         <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
         <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" t="n">
-        <v>0.319</v>
+        <v>0.324</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
         <v>84.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
@@ -1606,13 +1673,13 @@
         <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O7" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="n">
         <v>0.757</v>
@@ -1621,16 +1688,16 @@
         <v>12.4</v>
       </c>
       <c r="S7" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T7" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U7" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V7" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
         <v>8.1</v>
@@ -1642,25 +1709,25 @@
         <v>7.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.3</v>
+        <v>-3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
         <v>28</v>
@@ -1672,10 +1739,10 @@
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL7" t="n">
         <v>16</v>
@@ -1684,19 +1751,19 @@
         <v>12</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1705,7 +1772,7 @@
         <v>25</v>
       </c>
       <c r="AU7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV7" t="n">
         <v>6</v>
@@ -1729,7 +1796,7 @@
         <v>17</v>
       </c>
       <c r="BC7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
         <v>36</v>
       </c>
       <c r="G8" t="n">
-        <v>0.478</v>
+        <v>0.471</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
@@ -1776,25 +1843,25 @@
         <v>38.7</v>
       </c>
       <c r="J8" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K8" t="n">
         <v>0.46</v>
       </c>
       <c r="L8" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M8" t="n">
         <v>20.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O8" t="n">
         <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q8" t="n">
         <v>0.792</v>
@@ -1806,10 +1873,10 @@
         <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V8" t="n">
         <v>14.1</v>
@@ -1818,7 +1885,7 @@
         <v>7.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
         <v>4.1</v>
@@ -1827,16 +1894,16 @@
         <v>20.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>101.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1854,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
         <v>9</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
         <v>22</v>
@@ -1887,10 +1954,10 @@
         <v>16</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW8" t="n">
         <v>17</v>
@@ -1905,13 +1972,13 @@
         <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -2024,13 +2091,13 @@
         <v>4</v>
       </c>
       <c r="AF9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2057,13 +2124,13 @@
         <v>3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2093,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" t="n">
-        <v>0.329</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
@@ -2143,40 +2210,40 @@
         <v>81.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
         <v>6.2</v>
       </c>
       <c r="M10" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="O10" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P10" t="n">
         <v>22.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.696</v>
+        <v>0.695</v>
       </c>
       <c r="R10" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S10" t="n">
         <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U10" t="n">
         <v>20.9</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
         <v>6.8</v>
@@ -2194,22 +2261,22 @@
         <v>20.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.7</v>
+        <v>-4.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
@@ -2239,13 +2306,13 @@
         <v>14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT10" t="n">
         <v>13</v>
@@ -2254,10 +2321,10 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX10" t="n">
         <v>14</v>
@@ -2269,7 +2336,7 @@
         <v>14</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -2388,13 +2455,13 @@
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2409,7 +2476,7 @@
         <v>8</v>
       </c>
       <c r="AM11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2418,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="AP11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="n">
         <v>31</v>
       </c>
       <c r="G12" t="n">
-        <v>0.551</v>
+        <v>0.544</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J12" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L12" t="n">
         <v>10.7</v>
@@ -2516,67 +2583,67 @@
         <v>29</v>
       </c>
       <c r="N12" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O12" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
         <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R12" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U12" t="n">
         <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
         <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
         <v>20.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
         <v>11</v>
       </c>
-      <c r="AF12" t="n">
-        <v>10</v>
-      </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2603,7 +2670,7 @@
         <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR12" t="n">
         <v>20</v>
@@ -2636,7 +2703,7 @@
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
         <v>8</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -2668,58 +2735,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" t="n">
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>0.623</v>
+        <v>0.618</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="J13" t="n">
         <v>81</v>
       </c>
       <c r="K13" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M13" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O13" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P13" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q13" t="n">
         <v>0.749</v>
       </c>
       <c r="R13" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S13" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="T13" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="U13" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V13" t="n">
         <v>15.1</v>
@@ -2728,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y13" t="n">
         <v>5.8</v>
@@ -2740,13 +2807,13 @@
         <v>21.6</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2767,13 +2834,13 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>15</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
         <v>17</v>
@@ -2782,7 +2849,7 @@
         <v>13</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>18</v>
@@ -2797,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV13" t="n">
         <v>23</v>
@@ -2821,7 +2888,7 @@
         <v>21</v>
       </c>
       <c r="BC13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2955,7 +3022,7 @@
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="n">
         <v>20</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="n">
         <v>36</v>
       </c>
       <c r="F15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>0.514</v>
+        <v>0.522</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3056,34 +3123,34 @@
         <v>0.458</v>
       </c>
       <c r="L15" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
         <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O15" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T15" t="n">
         <v>44.7</v>
       </c>
       <c r="U15" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V15" t="n">
         <v>15.1</v>
@@ -3098,7 +3165,7 @@
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA15" t="n">
         <v>22.9</v>
@@ -3110,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -3164,7 +3231,7 @@
         <v>17</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" t="n">
         <v>46</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>0.676</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K16" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
         <v>16.1</v>
@@ -3259,22 +3326,22 @@
         <v>13.3</v>
       </c>
       <c r="S16" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V16" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W16" t="n">
         <v>8.6</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
         <v>5.6</v>
@@ -3283,16 +3350,16 @@
         <v>20.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
@@ -3301,16 +3368,16 @@
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
         <v>20</v>
@@ -3325,7 +3392,7 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
@@ -3340,7 +3407,7 @@
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
@@ -3361,10 +3428,10 @@
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.794</v>
+        <v>0.791</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3414,7 +3481,7 @@
         <v>38.8</v>
       </c>
       <c r="J17" t="n">
-        <v>78.2</v>
+        <v>78.3</v>
       </c>
       <c r="K17" t="n">
         <v>0.496</v>
@@ -3426,13 +3493,13 @@
         <v>21</v>
       </c>
       <c r="N17" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="O17" t="n">
         <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
         <v>0.761</v>
@@ -3444,37 +3511,37 @@
         <v>30</v>
       </c>
       <c r="T17" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="U17" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="V17" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W17" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>5.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB17" t="n">
         <v>103.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3501,13 +3568,13 @@
         <v>7</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
@@ -3519,7 +3586,7 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" t="n">
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.507</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J18" t="n">
-        <v>87.3</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="L18" t="n">
         <v>6.9</v>
@@ -3608,7 +3675,7 @@
         <v>19.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O18" t="n">
         <v>15.8</v>
@@ -3617,16 +3684,16 @@
         <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.739</v>
+        <v>0.742</v>
       </c>
       <c r="R18" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S18" t="n">
         <v>31</v>
       </c>
       <c r="T18" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U18" t="n">
         <v>22.9</v>
@@ -3641,22 +3708,22 @@
         <v>7.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA18" t="n">
         <v>19.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.4</v>
+        <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,10 +3735,10 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
@@ -3698,7 +3765,7 @@
         <v>20</v>
       </c>
       <c r="AR18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
         <v>13</v>
@@ -3707,13 +3774,13 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3728,10 +3795,10 @@
         <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -3760,58 +3827,58 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
         <v>43</v>
       </c>
       <c r="G19" t="n">
-        <v>0.358</v>
+        <v>0.348</v>
       </c>
       <c r="H19" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
         <v>81.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L19" t="n">
         <v>5.3</v>
       </c>
       <c r="M19" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.292</v>
+        <v>0.294</v>
       </c>
       <c r="O19" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P19" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.732</v>
+        <v>0.731</v>
       </c>
       <c r="R19" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S19" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T19" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U19" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
@@ -3823,28 +3890,28 @@
         <v>5</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
         <v>18.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>94.8</v>
+        <v>94.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.9</v>
+        <v>-3.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG19" t="n">
         <v>24</v>
@@ -3856,10 +3923,10 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3871,7 +3938,7 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
@@ -3883,10 +3950,10 @@
         <v>7</v>
       </c>
       <c r="AS19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU19" t="n">
         <v>18</v>
@@ -3901,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
         <v>46</v>
       </c>
       <c r="G20" t="n">
-        <v>0.343</v>
+        <v>0.333</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,7 +4027,7 @@
         <v>36.2</v>
       </c>
       <c r="J20" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.45</v>
@@ -3972,25 +4039,25 @@
         <v>18.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O20" t="n">
         <v>14.9</v>
       </c>
       <c r="P20" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="Q20" t="n">
         <v>0.774</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
         <v>29.7</v>
       </c>
       <c r="T20" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U20" t="n">
         <v>21.2</v>
@@ -3999,10 +4066,10 @@
         <v>14.4</v>
       </c>
       <c r="W20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y20" t="n">
         <v>6.1</v>
@@ -4017,10 +4084,10 @@
         <v>93.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
         <v>24</v>
@@ -4038,7 +4105,7 @@
         <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
         <v>13</v>
@@ -4050,7 +4117,7 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
@@ -4095,7 +4162,7 @@
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.612</v>
+        <v>0.606</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,19 +4209,19 @@
         <v>35.9</v>
       </c>
       <c r="J21" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
         <v>10.7</v>
       </c>
       <c r="M21" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O21" t="n">
         <v>16.3</v>
@@ -4163,7 +4230,7 @@
         <v>21.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.753</v>
+        <v>0.757</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
@@ -4187,7 +4254,7 @@
         <v>3.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z21" t="n">
         <v>19.7</v>
@@ -4202,7 +4269,7 @@
         <v>2.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4220,10 +4287,10 @@
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4235,13 +4302,13 @@
         <v>8</v>
       </c>
       <c r="AO21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ21" t="n">
         <v>13</v>
@@ -4274,7 +4341,7 @@
         <v>21</v>
       </c>
       <c r="BB21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC21" t="n">
         <v>9</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" t="n">
         <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.729</v>
+        <v>0.725</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4330,13 +4397,13 @@
         <v>0.481</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M22" t="n">
         <v>19.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O22" t="n">
         <v>22.8</v>
@@ -4345,19 +4412,19 @@
         <v>27.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.827</v>
+        <v>0.829</v>
       </c>
       <c r="R22" t="n">
         <v>10.4</v>
       </c>
       <c r="S22" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T22" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U22" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V22" t="n">
         <v>15.7</v>
@@ -4372,19 +4439,19 @@
         <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,10 +4463,10 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4441,22 +4508,22 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
         <v>6</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" t="n">
-        <v>0.257</v>
+        <v>0.261</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,10 +4573,10 @@
         <v>37.7</v>
       </c>
       <c r="J23" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L23" t="n">
         <v>6.4</v>
@@ -4521,13 +4588,13 @@
         <v>0.329</v>
       </c>
       <c r="O23" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="P23" t="n">
         <v>16.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
@@ -4539,34 +4606,34 @@
         <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V23" t="n">
         <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA23" t="n">
         <v>16.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="AC23" t="n">
         <v>-6.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4584,7 +4651,7 @@
         <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
@@ -4611,13 +4678,13 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
         <v>15</v>
       </c>
       <c r="AU23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
@@ -4629,7 +4696,7 @@
         <v>27</v>
       </c>
       <c r="AY23" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ23" t="n">
         <v>11</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4766,7 +4833,7 @@
         <v>14</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>19</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4823,7 +4890,7 @@
         <v>30</v>
       </c>
       <c r="BC24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
-        <v>0.329</v>
+        <v>0.333</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
@@ -4870,37 +4937,37 @@
         <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K25" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M25" t="n">
         <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.321</v>
+        <v>0.324</v>
       </c>
       <c r="O25" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="P25" t="n">
         <v>19.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.736</v>
+        <v>0.74</v>
       </c>
       <c r="R25" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S25" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T25" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U25" t="n">
         <v>22.1</v>
@@ -4918,28 +4985,28 @@
         <v>5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
         <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.3</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-6.3</v>
+        <v>-6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
@@ -4948,10 +5015,10 @@
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL25" t="n">
         <v>27</v>
@@ -4969,7 +5036,7 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR25" t="n">
         <v>12</v>
@@ -4984,19 +5051,19 @@
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW25" t="n">
         <v>15</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
         <v>27</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="n">
         <v>36</v>
       </c>
       <c r="G26" t="n">
-        <v>0.478</v>
+        <v>0.471</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J26" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
         <v>8.300000000000001</v>
@@ -5064,31 +5131,31 @@
         <v>23.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O26" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P26" t="n">
         <v>20.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.78</v>
+        <v>0.781</v>
       </c>
       <c r="R26" t="n">
         <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U26" t="n">
         <v>21.7</v>
       </c>
       <c r="V26" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W26" t="n">
         <v>6.8</v>
@@ -5100,19 +5167,19 @@
         <v>4.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,13 +5191,13 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
@@ -5142,10 +5209,10 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
         <v>24</v>
@@ -5157,7 +5224,7 @@
         <v>17</v>
       </c>
       <c r="AS26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT26" t="n">
         <v>18</v>
@@ -5166,13 +5233,13 @@
         <v>19</v>
       </c>
       <c r="AV26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
@@ -5181,13 +5248,13 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB26" t="n">
         <v>13</v>
       </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5303,10 +5370,10 @@
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -5398,19 +5465,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.768</v>
+        <v>0.765</v>
       </c>
       <c r="H28" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I28" t="n">
         <v>39.6</v>
@@ -5443,40 +5510,40 @@
         <v>8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T28" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U28" t="n">
         <v>25.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
         <v>8.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
         <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC28" t="n">
         <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5488,7 +5555,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
@@ -5506,7 +5573,7 @@
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
         <v>15</v>
@@ -5530,13 +5597,13 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW28" t="n">
         <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="n">
         <v>26</v>
       </c>
       <c r="F29" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" t="n">
-        <v>0.377</v>
+        <v>0.382</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
@@ -5607,31 +5674,31 @@
         <v>7.2</v>
       </c>
       <c r="M29" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N29" t="n">
         <v>0.344</v>
       </c>
       <c r="O29" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P29" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q29" t="n">
         <v>0.789</v>
       </c>
       <c r="R29" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U29" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V29" t="n">
         <v>13.6</v>
@@ -5640,7 +5707,7 @@
         <v>7.4</v>
       </c>
       <c r="X29" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
         <v>5</v>
@@ -5658,16 +5725,16 @@
         <v>-1.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5676,7 +5743,7 @@
         <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
         <v>21</v>
@@ -5685,13 +5752,13 @@
         <v>14</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN29" t="n">
         <v>25</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5712,16 +5779,16 @@
         <v>20</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
         <v>18</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="n">
         <v>34</v>
       </c>
       <c r="F30" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="n">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I30" t="n">
         <v>36.7</v>
       </c>
       <c r="J30" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
@@ -5792,25 +5859,25 @@
         <v>16.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O30" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P30" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R30" t="n">
         <v>12.4</v>
       </c>
       <c r="S30" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U30" t="n">
         <v>22.4</v>
@@ -5825,22 +5892,22 @@
         <v>6.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB30" t="n">
         <v>97.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5852,28 +5919,28 @@
         <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI30" t="n">
         <v>18</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM30" t="n">
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
         <v>7</v>
@@ -5885,7 +5952,7 @@
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
@@ -5894,16 +5961,16 @@
         <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>29</v>
@@ -5915,7 +5982,7 @@
         <v>14</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
@@ -5944,64 +6011,64 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" t="n">
         <v>43</v>
       </c>
       <c r="G31" t="n">
-        <v>0.368</v>
+        <v>0.358</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J31" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L31" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M31" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O31" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="P31" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q31" t="n">
         <v>0.736</v>
       </c>
       <c r="R31" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S31" t="n">
         <v>32.6</v>
       </c>
       <c r="T31" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U31" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V31" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W31" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X31" t="n">
         <v>4.7</v>
@@ -6010,31 +6077,31 @@
         <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF31" t="n">
         <v>22</v>
       </c>
-      <c r="AF31" t="n">
-        <v>21</v>
-      </c>
       <c r="AG31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI31" t="n">
         <v>26</v>
@@ -6043,7 +6110,7 @@
         <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
@@ -6052,7 +6119,7 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6061,7 +6128,7 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
         <v>22</v>
@@ -6070,25 +6137,25 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU31" t="n">
         <v>16</v>
       </c>
       <c r="AV31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
         <v>9</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-22-2012-13</t>
+          <t>2013-03-22</t>
         </is>
       </c>
     </row>
